--- a/data/trans_bre/P29_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P29_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-10,39</t>
+          <t>-23,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-15,76</t>
+          <t>-22,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-15,61</t>
+          <t>-21,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-35,35%</t>
+          <t>-4,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-43,46%</t>
+          <t>-61,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-44,68%</t>
+          <t>-55,52%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-61,5%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-17,02%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,86; 4,82</t>
+          <t>-43,72; -2,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 0,07</t>
+          <t>-44,1; -2,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-31,15; 2,05</t>
+          <t>-43,05; -2,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-66,8; 29,78</t>
+          <t>-25,31; 14,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-69,39; 0,35</t>
+          <t>-84,87; -4,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-70,96; 8,36</t>
+          <t>-83,01; -0,6</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-87,69; 3,96</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-70,75; 136,16</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-20,56</t>
+          <t>-17,02</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-11,23</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,01</t>
+          <t>-6,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-54,63%</t>
+          <t>12,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-35,06%</t>
+          <t>-46,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-23,67%</t>
+          <t>-21,65%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-24,22%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>85,19%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-38,77; -4,36</t>
+          <t>-49,08; 5,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,91; 4,66</t>
+          <t>-25,63; 12,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-26,1; 8,53</t>
+          <t>-34,2; 13,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-76,49; -13,8</t>
+          <t>-4,52; 31,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,31; 25,21</t>
+          <t>-80,69; 29,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,87; 47,26</t>
+          <t>-64,66; 85,62</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-83,84; 129,56</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-29,13; 523,82</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-22,59</t>
+          <t>-26,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,45</t>
+          <t>-20,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,92</t>
+          <t>-19,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-58,12%</t>
+          <t>-9,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-37,02%</t>
+          <t>-66,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-23,74%</t>
+          <t>-59,85%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-57,62%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-35,37%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-35,59; -10,06</t>
+          <t>-40,36; -12,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,22; -0,58</t>
+          <t>-34,76; -7,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 4,76</t>
+          <t>-34,37; -5,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-73,8; -33,4</t>
+          <t>-23,07; 3,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,37; -2,17</t>
+          <t>-81,62; -38,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-53,23; 24,27</t>
+          <t>-79,76; -27,16</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-79,17; -22,69</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-65,44; 20,31</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,24</t>
+          <t>-10,93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,06</t>
+          <t>-8,3</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-33,45%</t>
+          <t>-4,51</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,85%</t>
+          <t>-45,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-29,66%</t>
+          <t>-14,17%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-29,1%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-22,74%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 1,43</t>
+          <t>-22,23; 0,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 5,79</t>
+          <t>-15,62; 8,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 1,05</t>
+          <t>-21,94; 4,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-60,01; 10,46</t>
+          <t>-16,1; 6,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,98; 29,41</t>
+          <t>-72,48; 9,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,22; 5,22</t>
+          <t>-57,87; 56,91</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-60,67; 23,18</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-60,96; 48,69</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,53</t>
+          <t>-10,77</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-17,45</t>
+          <t>-21,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-17,82%</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-23,4%</t>
+          <t>-13,42%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-47,61%</t>
+          <t>-41,68%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-63,46%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17,25%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 6,35</t>
+          <t>-17,72; 13,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 6,24</t>
+          <t>-24,71; 5,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-30,47; -5,74</t>
+          <t>-37,38; -6,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-52,61; 35,43</t>
+          <t>-15,1; 20,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-56,26; 41,03</t>
+          <t>-60,77; 80,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-68,55; -14,04</t>
+          <t>-79,18; 36,77</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-86,0; -20,43</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-44,82; 108,73</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,92</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,38</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-17,44%</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-11,01%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-27,44%</t>
+          <t>-8,01%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-15,07%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>21,73%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 9,07</t>
+          <t>-14,6; 18,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 18,25</t>
+          <t>-20,3; 20,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,19; 3,77</t>
+          <t>-22,65; 16,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-59,71; 58,84</t>
+          <t>-14,15; 33,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,62; 78,02</t>
+          <t>-70,96; 284,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-63,72; 10,62</t>
+          <t>-60,91; 128,01</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-64,36; 108,33</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-49,86; 259,01</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-12,34</t>
+          <t>-14,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-8,33</t>
+          <t>-10,68</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-10,28</t>
+          <t>-13,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-41,84%</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-27,69%</t>
+          <t>-47,75%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-32,28%</t>
+          <t>-37,49%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-44,05%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,03%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,88; -6,38</t>
+          <t>-23,86; -8,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,65; -2,1</t>
+          <t>-17,32; -4,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,23; -4,39</t>
+          <t>-21,61; -6,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-54,39; -24,7</t>
+          <t>-6,17; 9,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-41,59; -7,44</t>
+          <t>-63,05; -30,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-45,74; -14,83</t>
+          <t>-52,17; -16,04</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-58,85; -25,54</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-24,03; 52,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P29_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P29_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-23,39</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-22,19</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-21,92</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-4,27</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-61,7%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-55,52%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-61,5%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-17,02%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-23.43616971731261</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-19.25852438712667</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-21.5565438390072</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.8141471480993728</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.6110844326935955</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.4908000716761901</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.6257915717001791</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.03714715971237192</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-43,72; -2,65</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-44,1; -2,19</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-43,05; -2,35</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-25,31; 14,36</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-84,87; -4,16</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-83,01; -0,6</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-87,69; 3,96</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-70,75; 136,16</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-44.56920428106947</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-42.18589743910039</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-42.35425592671811</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-21.2648429944785</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.8433585592397252</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.7904137771165491</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.8771152390221144</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6581657332816413</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-2.138318363231556</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.482394708700559</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-2.358801524530038</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>17.04771718160486</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>-0.02904164767576987</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.09853518281043294</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.0209111480251628</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.787676353860445</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-17,02</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-5,77</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-6,21</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,21</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-46,03%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-21,65%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-24,22%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>85,19%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-49,08; 5,41</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-25,63; 12,68</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-34,2; 13,94</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,52; 31,48</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-80,69; 29,68</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-64,66; 85,62</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-83,84; 129,56</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-29,13; 523,82</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-14.97391595692161</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-5.136175333829959</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-6.266866491945336</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>14.60214640824821</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.449125539289265</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1973477027250411</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.2406252868936754</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.098390867226583</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-26,89</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-20,74</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-19,18</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-9,39</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-66,92%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-59,85%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-57,62%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-35,37%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-40.45479887580986</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-23.98650548445242</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-33.67124904110936</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.724473621510061</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.7709135877345558</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.6306455276901696</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.8282723187119115</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1848735809469041</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-40,36; -12,89</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-34,76; -7,55</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-34,37; -5,33</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-23,07; 3,38</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-81,62; -38,78</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-79,76; -27,16</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-79,17; -22,69</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-65,44; 20,31</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.002237333896884</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>12.74938284787247</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>13.96827915145941</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>34.08952632764102</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.370150243118239</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.8290426333933373</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.146411737565297</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>6.163409232267189</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-10,93</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,94</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-8,3</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-4,51</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-45,53%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-14,17%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-29,1%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-22,74%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-23.94927399839993</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-20.81393250041271</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-19.44980647099883</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-8.878913893523672</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.6329822083477391</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.593745598804574</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.5750056073994821</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.3343940865773941</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-22,23; 0,68</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-15,62; 8,02</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-21,94; 4,51</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-16,1; 6,32</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-72,48; 9,74</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-57,87; 56,91</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-60,67; 23,18</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-60,96; 48,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-38.30594024709576</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-34.92385697743398</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-34.33927751044227</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-23.00625638696807</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.7996895153497546</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.794917491221875</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.7910324537031059</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6396447712319109</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-9.066472494486675</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-6.970790634070164</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-3.936038843515792</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.196076741699631</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>-0.298160188498471</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>-0.2410556504026028</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>-0.193160396962856</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2636492408101091</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,35</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-10,77</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-21,95</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,44</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-13,42%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-41,68%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-63,46%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>17,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-17,72; 13,4</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-24,71; 5,38</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-37,38; -6,88</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-15,1; 20,91</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-60,77; 80,87</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-79,18; 36,77</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-86,0; -20,43</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-44,82; 108,73</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-11.10252517029252</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.156538101692128</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-7.436909548046669</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-3.688998089653675</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.4800950477523011</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.05861388228249276</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2701529327336124</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1924535615027511</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,13</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-4,14</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,33</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>6,63%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-8,01%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-15,07%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>21,73%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-22.57612752375421</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-14.30799082457232</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-20.6956812493485</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-15.00710235503804</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.7424452513481998</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.5318165440194713</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5948534108106934</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5816205080459926</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-14,6; 18,6</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-20,3; 20,05</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-22,65; 16,9</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-14,15; 33,93</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-70,96; 284,11</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-60,91; 128,01</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-64,36; 108,33</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-49,86; 259,01</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.09574291831495681</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.21471048055144</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.318943712357636</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.116322145014769</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.0394303056336226</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.71643953844477</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.2626998071707631</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5404250861093464</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-14,35</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-10,68</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-13,55</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-47,75%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-37,49%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-44,05%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>3,03%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-4.725867840759646</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-10.62725182675612</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-20.89043156358964</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>4.952897914380438</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.185514966110913</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.4153726125795342</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.6069612967393404</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.1912058763430828</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-23,86; -8,17</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-17,32; -4,05</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-21,61; -6,99</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-6,17; 9,85</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-63,05; -30,92</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-52,17; -16,04</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-58,85; -25,54</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-24,03; 52,21</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-19.42134906507912</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-25.1305098570037</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-37.03153414955865</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-14.52552104126039</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.6367397905408477</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.7896119640434861</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.8496467077593121</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.4350025216014793</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>11.95912614405548</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>5.918705470296297</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-5.111589780600603</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>21.33779116927109</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.7196198711384216</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.3904739976095737</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>-0.1290753332619928</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>1.103294348348774</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>2.432241374779887</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.7581501388537304</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.8441898269093973</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>2.948649031062744</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.181024510561053</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.02895599417454243</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.03072373727776212</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.1152327891536584</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-13.49896894932093</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-19.32781244853392</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-19.16818523849238</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-16.90716138037424</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.6851526464816659</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.5824220079003276</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.5723299894671862</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.5346140654196173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>19.46401988729222</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>21.30827382816467</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>22.88487825125984</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>28.70873775270532</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>3.30570030829541</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>1.389218910117839</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>1.576356381364719</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>2.424619915834687</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-13.52197484887713</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-9.638966946516693</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-12.8797163281077</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.437621867172417</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.4690579645644664</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.342645433121948</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.4211857612529601</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.06727533302309073</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-21.38439117556275</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-15.97621286703798</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-20.77289317951151</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-5.162126093195383</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.6274658416202612</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.4958075067784888</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.5756787117056598</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.204618204175</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-7.120847277532144</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-3.017166463045962</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-6.352398394252353</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>9.609818417555614</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>-0.2882380092022329</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>-0.1193292337882186</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>-0.2212194550933891</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.5401752750941725</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1325,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
